--- a/Excel/Lab.MiniExcelQuery/Lab.MiniExcelQuery.Test/Template/Member.xlsx
+++ b/Excel/Lab.MiniExcelQuery/Lab.MiniExcelQuery.Test/Template/Member.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\sample.dotblog\Excel\Lab.MiniExcelQuery\Lab.MiniExcelQuery.Test\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D6841E-FE9C-45E1-83E6-D66642F48E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE9340E-4562-48B0-9560-4A1A0829EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="480" windowWidth="27030" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
   </si>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>{{Members.Age}}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Members.Birthday}}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1047,20 +1055,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1068,16 +1079,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1085,12 +1099,15 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
